--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121141a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121141a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.321232341406558</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.6285568297748401</v>
+      </c>
+      <c r="C5">
+        <v>0.6695546125740601</v>
+      </c>
+      <c r="D5">
+        <v>0.679872257369743</v>
+      </c>
+      <c r="E5">
+        <v>1.453825288171079</v>
+      </c>
+      <c r="F5">
+        <v>0.7341556232155364</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0.6285568297748401</v>
+        <v>2.837372214024471</v>
       </c>
       <c r="C6">
-        <v>0.6695546125740601</v>
+        <v>2.875170826458176</v>
       </c>
       <c r="D6">
-        <v>0.679872257369743</v>
+        <v>2.90531421336571</v>
       </c>
       <c r="E6">
-        <v>1.453825288171079</v>
+        <v>6.252888952674843</v>
       </c>
       <c r="F6">
-        <v>0.7341556232155364</v>
+        <v>3.310281290427731</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>2.837372214024471</v>
+        <v>1.875095636154605</v>
       </c>
       <c r="C7">
-        <v>2.875170826458176</v>
+        <v>2.194884095623201</v>
       </c>
       <c r="D7">
-        <v>2.90531421336571</v>
+        <v>2.298636787364901</v>
       </c>
       <c r="E7">
-        <v>6.252888952674843</v>
+        <v>3.74842962257155</v>
       </c>
       <c r="F7">
-        <v>3.310281290427731</v>
+        <v>2.252357211182349</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1.863081489009501</v>
+      </c>
+      <c r="C8">
+        <v>3.577343658375432</v>
+      </c>
+      <c r="D8">
+        <v>3.721235107636205</v>
+      </c>
+      <c r="E8">
+        <v>10.54688284391878</v>
+      </c>
+      <c r="F8">
+        <v>4.949457802811139</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>1.875095636154605</v>
+        <v>4.316523351098573</v>
       </c>
       <c r="C9">
-        <v>2.194884095623201</v>
+        <v>6.013309459651245</v>
       </c>
       <c r="D9">
-        <v>2.298636787364901</v>
+        <v>6.480449253754469</v>
       </c>
       <c r="E9">
-        <v>3.74842962257155</v>
+        <v>16.26838925902683</v>
       </c>
       <c r="F9">
-        <v>2.252357211182349</v>
+        <v>3.361555065662974</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>1.863081489009501</v>
+        <v>2.511490573886774</v>
       </c>
       <c r="C10">
-        <v>3.577343658375432</v>
+        <v>2.471630305800212</v>
       </c>
       <c r="D10">
-        <v>3.721235107636205</v>
+        <v>2.257980165690388</v>
       </c>
       <c r="E10">
-        <v>10.54688284391878</v>
+        <v>7.982261934370869</v>
       </c>
       <c r="F10">
-        <v>4.949457802811139</v>
+        <v>4.74745357651501</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>4.316523351098573</v>
+        <v>3.039894617239813</v>
       </c>
       <c r="C11">
-        <v>6.013309459651245</v>
+        <v>3.741175895934996</v>
       </c>
       <c r="D11">
-        <v>6.480449253754469</v>
+        <v>3.908060369492272</v>
       </c>
       <c r="E11">
-        <v>16.26838925902683</v>
+        <v>9.766157001955907</v>
       </c>
       <c r="F11">
-        <v>3.361555065662974</v>
+        <v>4.453887097779298</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>2.511490573886774</v>
+        <v>3.995494994010707</v>
       </c>
       <c r="C12">
-        <v>2.471630305800212</v>
+        <v>4.737239257441544</v>
       </c>
       <c r="D12">
-        <v>2.257980165690388</v>
+        <v>4.991251284024657</v>
       </c>
       <c r="E12">
-        <v>7.982261934370869</v>
+        <v>6.282795284704457</v>
       </c>
       <c r="F12">
-        <v>4.74745357651501</v>
+        <v>3.985850467178838</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>3.039894617239813</v>
+        <v>3.825866375017883</v>
       </c>
       <c r="C13">
-        <v>3.741175895934996</v>
+        <v>4.927701187489118</v>
       </c>
       <c r="D13">
-        <v>3.908060369492272</v>
+        <v>4.985029978354663</v>
       </c>
       <c r="E13">
-        <v>9.766157001955907</v>
+        <v>10.56205627825706</v>
       </c>
       <c r="F13">
-        <v>4.453887097779298</v>
+        <v>9.361237170457786</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>3.995494994010707</v>
+        <v>2.615355436683592</v>
       </c>
       <c r="C14">
-        <v>4.737239257441544</v>
+        <v>3.433837469282277</v>
       </c>
       <c r="D14">
-        <v>4.991251284024657</v>
+        <v>3.751973464896893</v>
       </c>
       <c r="E14">
-        <v>6.282795284704457</v>
+        <v>8.095931030708028</v>
       </c>
       <c r="F14">
-        <v>3.985850467178838</v>
+        <v>2.492236194343987</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>3.825866375017883</v>
+        <v>0.6323491593905382</v>
       </c>
       <c r="C15">
-        <v>4.927701187489118</v>
+        <v>0.8209218291864945</v>
       </c>
       <c r="D15">
-        <v>4.985029978354663</v>
+        <v>0.9136144579128005</v>
       </c>
       <c r="E15">
-        <v>10.56205627825706</v>
+        <v>2.68715360702661</v>
       </c>
       <c r="F15">
-        <v>9.361237170457786</v>
+        <v>1.067645721574774</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>2.615355436683592</v>
+        <v>2.406763518009944</v>
       </c>
       <c r="C16">
-        <v>3.433837469282277</v>
+        <v>2.938026752369014</v>
       </c>
       <c r="D16">
-        <v>3.751973464896893</v>
+        <v>2.981385688631494</v>
       </c>
       <c r="E16">
-        <v>8.095931030708028</v>
+        <v>16.40839571622802</v>
       </c>
       <c r="F16">
-        <v>2.492236194343987</v>
+        <v>4.540628535962794</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>0.6323491593905382</v>
+        <v>1.961088214457389</v>
       </c>
       <c r="C17">
-        <v>0.8209218291864945</v>
+        <v>3.118754721802343</v>
       </c>
       <c r="D17">
-        <v>0.9136144579128005</v>
+        <v>3.177629539370974</v>
       </c>
       <c r="E17">
-        <v>2.68715360702661</v>
+        <v>11.62259290629997</v>
       </c>
       <c r="F17">
-        <v>1.067645721574774</v>
+        <v>3.561200566005146</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>2.406763518009944</v>
+        <v>0.9697410771807552</v>
       </c>
       <c r="C18">
-        <v>2.938026752369014</v>
+        <v>1.515247761382071</v>
       </c>
       <c r="D18">
-        <v>2.981385688631494</v>
+        <v>1.714369860219829</v>
       </c>
       <c r="E18">
-        <v>16.40839571622802</v>
+        <v>5.855250387031089</v>
       </c>
       <c r="F18">
-        <v>4.540628535962794</v>
+        <v>1.896633665930496</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>1.961088214457389</v>
+        <v>4.18867704500405</v>
       </c>
       <c r="C19">
-        <v>3.118754721802343</v>
+        <v>5.783974500035177</v>
       </c>
       <c r="D19">
-        <v>3.177629539370974</v>
+        <v>6.214422145317329</v>
       </c>
       <c r="E19">
-        <v>11.62259290629997</v>
+        <v>11.0346271839727</v>
       </c>
       <c r="F19">
-        <v>3.561200566005146</v>
+        <v>3.576095393697037</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>0.9697410771807552</v>
+        <v>2.591924030599325</v>
       </c>
       <c r="C20">
-        <v>1.515247761382071</v>
+        <v>2.191549498512835</v>
       </c>
       <c r="D20">
-        <v>1.714369860219829</v>
+        <v>2.489515823655229</v>
       </c>
       <c r="E20">
-        <v>5.855250387031089</v>
+        <v>12.77632279101602</v>
       </c>
       <c r="F20">
-        <v>1.896633665930496</v>
+        <v>3.701788056120572</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>4.18867704500405</v>
+        <v>1.340854055839407</v>
       </c>
       <c r="C21">
-        <v>5.783974500035177</v>
+        <v>2.365516511191474</v>
       </c>
       <c r="D21">
-        <v>6.214422145317329</v>
+        <v>2.951109133078828</v>
       </c>
       <c r="E21">
-        <v>11.0346271839727</v>
+        <v>5.053052070642432</v>
       </c>
       <c r="F21">
-        <v>3.576095393697037</v>
+        <v>1.548574454540899</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>2.591924030599325</v>
+        <v>3.173911639084543</v>
       </c>
       <c r="C22">
-        <v>2.191549498512835</v>
+        <v>4.08266288904024</v>
       </c>
       <c r="D22">
-        <v>2.489515823655229</v>
+        <v>4.633049715569412</v>
       </c>
       <c r="E22">
-        <v>12.77632279101602</v>
+        <v>9.098917588448147</v>
       </c>
       <c r="F22">
-        <v>3.701788056120572</v>
+        <v>4.143284339453923</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>1.340854055839407</v>
+        <v>3.159631259778986</v>
       </c>
       <c r="C23">
-        <v>2.365516511191474</v>
+        <v>3.062968558497572</v>
       </c>
       <c r="D23">
-        <v>2.951109133078828</v>
+        <v>3.147847960922988</v>
       </c>
       <c r="E23">
-        <v>5.053052070642432</v>
+        <v>7.53506978827714</v>
       </c>
       <c r="F23">
-        <v>1.548574454540899</v>
+        <v>4.951386788343422</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>3.173911639084543</v>
+        <v>1.141991297566647</v>
       </c>
       <c r="C24">
-        <v>4.08266288904024</v>
+        <v>1.307909101385585</v>
       </c>
       <c r="D24">
-        <v>4.633049715569412</v>
+        <v>1.458974787472793</v>
       </c>
       <c r="E24">
-        <v>9.098917588448147</v>
+        <v>4.42692295648274</v>
       </c>
       <c r="F24">
-        <v>4.143284339453923</v>
+        <v>2.449823598974699</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>3.159631259778986</v>
+        <v>0.4909028530331643</v>
       </c>
       <c r="C25">
-        <v>3.062968558497572</v>
+        <v>0.580910367534523</v>
       </c>
       <c r="D25">
-        <v>3.147847960922988</v>
+        <v>0.6436320732652835</v>
       </c>
       <c r="E25">
-        <v>7.53506978827714</v>
+        <v>2.151463636301028</v>
       </c>
       <c r="F25">
-        <v>4.951386788343422</v>
+        <v>0.7450883696763705</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>1.141991297566647</v>
+        <v>0.9971542931109391</v>
       </c>
       <c r="C26">
-        <v>1.307909101385585</v>
+        <v>1.094137551384026</v>
       </c>
       <c r="D26">
-        <v>1.458974787472793</v>
+        <v>1.17042763882232</v>
       </c>
       <c r="E26">
-        <v>4.42692295648274</v>
+        <v>4.373708160842642</v>
       </c>
       <c r="F26">
-        <v>2.449823598974699</v>
+        <v>1.448215417184642</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>0.4909028530331643</v>
+        <v>1.964864008280991</v>
       </c>
       <c r="C27">
-        <v>0.580910367534523</v>
+        <v>2.532685442976915</v>
       </c>
       <c r="D27">
-        <v>0.6436320732652835</v>
+        <v>3.032915576609727</v>
       </c>
       <c r="E27">
-        <v>2.151463636301028</v>
+        <v>9.077716374234836</v>
       </c>
       <c r="F27">
-        <v>0.7450883696763705</v>
+        <v>3.015076853471137</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>0.9971542931109391</v>
+        <v>1.239237717751515</v>
       </c>
       <c r="C28">
-        <v>1.094137551384026</v>
+        <v>1.375601472266573</v>
       </c>
       <c r="D28">
-        <v>1.17042763882232</v>
+        <v>1.415202052905831</v>
       </c>
       <c r="E28">
-        <v>4.373708160842642</v>
+        <v>3.850511945217589</v>
       </c>
       <c r="F28">
-        <v>1.448215417184642</v>
+        <v>1.641573282318957</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>1.964864008280991</v>
+        <v>0.6546608750682567</v>
       </c>
       <c r="C29">
-        <v>2.532685442976915</v>
+        <v>0.8280980280415582</v>
       </c>
       <c r="D29">
-        <v>3.032915576609727</v>
+        <v>0.9497467475794815</v>
       </c>
       <c r="E29">
-        <v>9.077716374234836</v>
+        <v>3.154576763038391</v>
       </c>
       <c r="F29">
-        <v>3.015076853471137</v>
+        <v>1.072383168246289</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>1.239237717751515</v>
+        <v>0.5580667645478758</v>
       </c>
       <c r="C30">
-        <v>1.375601472266573</v>
+        <v>0.7742108415917265</v>
       </c>
       <c r="D30">
-        <v>1.415202052905831</v>
+        <v>0.8886722044550025</v>
       </c>
       <c r="E30">
-        <v>3.850511945217589</v>
+        <v>3.645677392864644</v>
       </c>
       <c r="F30">
-        <v>1.641573282318957</v>
+        <v>1.220655068772432</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>0.6546608750682567</v>
+        <v>0.9339308526788478</v>
       </c>
       <c r="C31">
-        <v>0.8280980280415582</v>
+        <v>1.182070116449262</v>
       </c>
       <c r="D31">
-        <v>0.9497467475794815</v>
+        <v>1.272091684368707</v>
       </c>
       <c r="E31">
-        <v>3.154576763038391</v>
+        <v>4.79116707735275</v>
       </c>
       <c r="F31">
-        <v>1.072383168246289</v>
+        <v>1.927459712222788</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>0.5580667645478758</v>
+        <v>1.414838034346372</v>
       </c>
       <c r="C32">
-        <v>0.7742108415917265</v>
+        <v>2.19634258645774</v>
       </c>
       <c r="D32">
-        <v>0.8886722044550025</v>
+        <v>2.616265543329767</v>
       </c>
       <c r="E32">
-        <v>3.645677392864644</v>
+        <v>11.29782248092705</v>
       </c>
       <c r="F32">
-        <v>1.220655068772432</v>
+        <v>2.998713506016022</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>0.9339308526788478</v>
+        <v>0.7377751318550538</v>
       </c>
       <c r="C33">
-        <v>1.182070116449262</v>
+        <v>0.9574269017820359</v>
       </c>
       <c r="D33">
-        <v>1.272091684368707</v>
+        <v>1.091755282757513</v>
       </c>
       <c r="E33">
-        <v>4.79116707735275</v>
+        <v>5.165620001910549</v>
       </c>
       <c r="F33">
-        <v>1.927459712222788</v>
+        <v>1.806322250007107</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>1.414838034346372</v>
+        <v>0.863489155553978</v>
       </c>
       <c r="C34">
-        <v>2.19634258645774</v>
+        <v>1.214404354330486</v>
       </c>
       <c r="D34">
-        <v>2.616265543329767</v>
+        <v>1.238083045506845</v>
       </c>
       <c r="E34">
-        <v>11.29782248092705</v>
+        <v>3.455329197797452</v>
       </c>
       <c r="F34">
-        <v>2.998713506016022</v>
+        <v>1.551916741257502</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>0.7377751318550538</v>
+        <v>1.651714861348516</v>
       </c>
       <c r="C35">
-        <v>0.9574269017820359</v>
+        <v>1.963928551220477</v>
       </c>
       <c r="D35">
-        <v>1.091755282757513</v>
+        <v>2.105602875527743</v>
       </c>
       <c r="E35">
-        <v>5.165620001910549</v>
+        <v>6.960125232921158</v>
       </c>
       <c r="F35">
-        <v>1.806322250007107</v>
+        <v>3.19386373502494</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>0.863489155553978</v>
+        <v>2.524636533318245</v>
       </c>
       <c r="C36">
-        <v>1.214404354330486</v>
+        <v>3.902605194151751</v>
       </c>
       <c r="D36">
-        <v>1.238083045506845</v>
+        <v>3.787462803814795</v>
       </c>
       <c r="E36">
-        <v>3.455329197797452</v>
+        <v>9.991916039631301</v>
       </c>
       <c r="F36">
-        <v>1.551916741257502</v>
+        <v>4.063350803475254</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>1.651714861348516</v>
+        <v>1.242470296371183</v>
       </c>
       <c r="C37">
-        <v>1.963928551220477</v>
+        <v>1.73503622669794</v>
       </c>
       <c r="D37">
-        <v>2.105602875527743</v>
+        <v>1.818528980170051</v>
       </c>
       <c r="E37">
-        <v>6.960125232921158</v>
+        <v>5.688033986234588</v>
       </c>
       <c r="F37">
-        <v>3.19386373502494</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>2.524636533318245</v>
-      </c>
-      <c r="C38">
-        <v>3.902605194151751</v>
-      </c>
-      <c r="D38">
-        <v>3.787462803814795</v>
-      </c>
-      <c r="E38">
-        <v>9.991916039631301</v>
-      </c>
-      <c r="F38">
-        <v>4.063350803475254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>1.242470296371183</v>
-      </c>
-      <c r="C39">
-        <v>1.73503622669794</v>
-      </c>
-      <c r="D39">
-        <v>1.818528980170051</v>
-      </c>
-      <c r="E39">
-        <v>5.688033986234588</v>
-      </c>
-      <c r="F39">
         <v>2.488236123158058</v>
       </c>
     </row>
